--- a/medicine/Sexualité et sexologie/Musée_de_l'érotisme_(Paris)/Musée_de_l'érotisme_(Paris).xlsx
+++ b/medicine/Sexualité et sexologie/Musée_de_l'érotisme_(Paris)/Musée_de_l'érotisme_(Paris).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_l%27%C3%A9rotisme_(Paris)</t>
+          <t>Musée_de_l'érotisme_(Paris)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée de l'Érotisme était un musée privé parisien consacré à l'art érotique (peinture, sculpture, objets…).
-Inauguré en novembre 1997 par Alain Plumey et Joseph Khalifa[1] au cœur de Pigalle dans le 18e arrondissement de Paris, au 72, boulevard de Clichy, le musée a fermé ses portes au public le 7 novembre 2016 et l'ensemble de la collection a été vendue aux enchères[2].
+Inauguré en novembre 1997 par Alain Plumey et Joseph Khalifa au cœur de Pigalle dans le 18e arrondissement de Paris, au 72, boulevard de Clichy, le musée a fermé ses portes au public le 7 novembre 2016 et l'ensemble de la collection a été vendue aux enchères.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_de_l%27%C3%A9rotisme_(Paris)</t>
+          <t>Musée_de_l'érotisme_(Paris)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les sept étages, le musée regroupait des expositions permanentes sur :
 l'art populaire centré sur la sexualité dans son aspect récréatif ;
@@ -520,7 +534,7 @@
 l'art contemporain (photographies, dessins, peintures…) ;
 l'histoire des maisons closes de la fin du XIXe siècle à l’année 1946, date de la fermeture de ces établissements en France.
 Il exposait des pièces d’Afrique, d’Amérique, d’Asie, d’Europe et d’Océanie.
-Le musée abritat aussi des expositions temporaires d'artistes internationaux, d'une durée de six à sept mois, notamment sur le Japon, Alexandre Dupouy, Christian Peter, Peter van Straaten, Barbe, Christophe Bier, Stéphane Blanquet, Jacques Brissot, Jean-Pierre Ceytaire, Jacques Charrier, Nicole Claveloux, Jean Demélier, Freak Wave, Charlie Hebdo, Placid et Muzo, Alex Varenne[3].
+Le musée abritat aussi des expositions temporaires d'artistes internationaux, d'une durée de six à sept mois, notamment sur le Japon, Alexandre Dupouy, Christian Peter, Peter van Straaten, Barbe, Christophe Bier, Stéphane Blanquet, Jacques Brissot, Jean-Pierre Ceytaire, Jacques Charrier, Nicole Claveloux, Jean Demélier, Freak Wave, Charlie Hebdo, Placid et Muzo, Alex Varenne.
 </t>
         </is>
       </c>
